--- a/CCRCs_Clustering/Results/Clustering_results_DCgain_freq.xlsx
+++ b/CCRCs_Clustering/Results/Clustering_results_DCgain_freq.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="163">
   <si>
     <t>leaf</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">"Pmmc3&gt;0.698" -&gt; "Pmmc3&lt;=0.866" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Qg3&gt;0.191" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Pg3&gt;0.191" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.754" -&gt; "Ql9&lt;=-0.2" -&gt; </t>
@@ -57,13 +57,13 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.754" -&gt; "Pmmc3&lt;=-0.391" -&gt; "Pg1&gt;0.283" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.754" -&gt; "Pmmc3&lt;=-0.391" -&gt; "Pg1&lt;=0.283" -&gt; "Qg2&gt;0.058" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Qg3&lt;=0.191" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.754" -&gt; "Pmmc3&lt;=-0.391" -&gt; "Pg1&lt;=0.283" -&gt; "Qg2&lt;=0.058" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.754" -&gt; "Pmmc3&lt;=-0.391" -&gt; "Pg1&lt;=0.283" -&gt; "Ql7&lt;=-0.169" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.397" -&gt; "Pg3&lt;=0.191" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.754" -&gt; "Pmmc3&lt;=-0.391" -&gt; "Pg1&lt;=0.283" -&gt; "Ql7&gt;-0.169" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.601" -&gt; "Pl9&gt;-0.208" -&gt; </t>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.601" -&gt; "Pmmc3&lt;=-0.186" -&gt; "Pg1&gt;0.236" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.186" -&gt; "Pl2&gt;-0.361" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.186" -&gt; "Ql2&gt;-0.271" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Pmmc3&lt;=0.19" -&gt; </t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.186" -&gt; "Pl2&lt;=-0.361" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.186" -&gt; "Ql2&lt;=-0.271" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.63" -&gt; </t>
@@ -129,106 +129,109 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.656" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Ql5&gt;-0.091" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Ql5&lt;=-0.091" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Ql2&gt;-0.262" -&gt; "Ql5&gt;-0.128" -&gt; "Pg3&gt;0.176" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.537" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Ql2&gt;-0.262" -&gt; "Ql5&lt;=-0.128" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Ql2&gt;-0.262" -&gt; "Ql5&gt;-0.128" -&gt; "Pg3&lt;=0.176" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.537" -&gt; "Ql2&gt;-0.262" -&gt; "Ql5&lt;=-0.128" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Ql2&lt;=-0.262" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=-0.398" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.656" -&gt; "Ql2&gt;-0.171" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql2&gt;-0.193" -&gt; "Pg1&gt;0.201" -&gt; "Pmmc3&lt;=-0.068" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.193" -&gt; "Pg1&gt;0.201" -&gt; "Pmmc3&gt;-0.068" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pg1&gt;0.268" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.656" -&gt; "Ql2&lt;=-0.171" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.157" -&gt; "Pl7&gt;-0.11" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.193" -&gt; "Pmmc3&lt;=-0.137" -&gt; "Pl2&gt;-0.379" -&gt; "Pg1&gt;0.385" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.193" -&gt; "Pg1&lt;=0.201" -&gt; "Qg1&lt;=0.035" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.157" -&gt; "Pl9&gt;-0.16" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.857" -&gt; "Pl9&gt;-0.273" -&gt; "Pg1&gt;0.259" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&gt;-0.145" -&gt; "Pg2&gt;0.112" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.193" -&gt; "Pmmc3&lt;=-0.137" -&gt; "Pl2&gt;-0.379" -&gt; "Pg1&lt;=0.385" -&gt; </t>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&gt;-0.109" -&gt; "Pg2&gt;0.112" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.857" -&gt; "Pmmc3&lt;=-0.649" -&gt; "Pl9&gt;-0.273" -&gt; "Pg1&gt;0.259" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.157" -&gt; "Pl7&lt;=-0.11" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=-0.22" -&gt; "Pl5&gt;-0.137" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&gt;-0.193" -&gt; "Pg1&lt;=0.201" -&gt; "Qg1&gt;0.035" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&gt;-0.145" -&gt; "Pg2&lt;=0.112" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.157" -&gt; "Pl9&lt;=-0.16" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=-0.22" -&gt; "Ql5&gt;-0.103" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&gt;-0.109" -&gt; "Pg2&lt;=0.112" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl9&gt;-0.273" -&gt; "Pg1&lt;=0.259" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.248" -&gt; "Pl7&lt;=-0.145" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.253" -&gt; "Pmmc3&lt;=-0.649" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&lt;=-0.109" -&gt; "Pg2&lt;=0.115" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&lt;=0.02" -&gt; "Pl7&lt;=-0.176" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=-0.22" -&gt; "Pl5&lt;=-0.137" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.193" -&gt; "Pmmc3&lt;=-0.137" -&gt; "Pl2&lt;=-0.379" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql5&gt;-0.094" -&gt; "Pg1&gt;0.271" -&gt; "Ql2&gt;-0.115" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pmmc3&lt;=0.248" -&gt; "Pl7&lt;=-0.145" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=-0.22" -&gt; "Ql5&lt;=-0.103" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl5&gt;-0.126" -&gt; "Pg1&gt;0.271" -&gt; "Ql7&gt;-0.085" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&lt;=-0.109" -&gt; "Pg2&gt;0.115" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pg1&lt;=0.268" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql5&gt;-0.094" -&gt; "Pg1&gt;0.271" -&gt; "Ql2&lt;=-0.115" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql2&lt;=-0.193" -&gt; "Pmmc3&gt;-0.137" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&lt;=0.139" -&gt; "Ql2&gt;-0.187" -&gt; "Pmmc3&gt;0.257" -&gt; </t>
+    <t xml:space="preserve">"Pl5&gt;-0.126" -&gt; "Pg1&gt;0.271" -&gt; "Ql7&lt;=-0.085" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.253" -&gt; "Pmmc3&gt;-0.649" -&gt; "Qg2&gt;0.075" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.253" -&gt; "Pmmc3&lt;=-0.439" -&gt; "Pg1&gt;0.281" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&lt;=0.02" -&gt; "Pl7&gt;-0.176" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql5&lt;=-0.094" -&gt; "Qg3&gt;0.142" -&gt; "Ql9&gt;-0.181" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Qg3&lt;=0.103" -&gt; </t>
+    <t xml:space="preserve">"Pl5&lt;=-0.126" -&gt; "Qg3&gt;0.142" -&gt; "Pl9&gt;-0.241" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pg3&lt;=0.103" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl9&lt;=-0.273" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql5&gt;-0.094" -&gt; "Pg1&lt;=0.271" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&lt;=0.139" -&gt; "Ql2&gt;-0.187" -&gt; "Pmmc3&lt;=0.257" -&gt; "Pg1&lt;=0.089" -&gt; </t>
+    <t xml:space="preserve">"Pl2&gt;-0.253" -&gt; "Pmmc3&gt;-0.649" -&gt; "Qg2&lt;=0.075" -&gt; "Pg2&lt;=0.077" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl5&gt;-0.126" -&gt; "Pg1&lt;=0.271" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pg1&gt;0.315" -&gt; </t>
@@ -237,16 +240,22 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.22" -&gt; "Pmmc3&lt;=0.041" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql5&lt;=-0.094" -&gt; "Qg3&gt;0.142" -&gt; "Ql9&lt;=-0.181" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Qg3&gt;0.103" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ql5&lt;=-0.094" -&gt; "Qg3&lt;=0.142" -&gt; "Ql7&gt;-0.125" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&lt;=0.139" -&gt; "Ql2&gt;-0.187" -&gt; "Pmmc3&lt;=0.257" -&gt; "Pg1&gt;0.089" -&gt; </t>
+    <t xml:space="preserve">"Pl5&lt;=-0.126" -&gt; "Qg3&gt;0.142" -&gt; "Pl9&lt;=-0.241" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pg3&gt;0.103" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&gt;-0.253" -&gt; "Pmmc3&gt;-0.649" -&gt; "Qg2&lt;=0.075" -&gt; "Pg2&gt;0.077" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl5&lt;=-0.126" -&gt; "Qg3&lt;=0.142" -&gt; "Pl7&gt;-0.166" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.253" -&gt; "Pmmc3&gt;-0.439" -&gt; "Qg2&gt;0.066" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.253" -&gt; "Pmmc3&lt;=-0.439" -&gt; "Pg1&lt;=0.281" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Pmmc3&lt;=0.278" -&gt; </t>
@@ -255,16 +264,10 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.41" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Ql5&lt;=-0.094" -&gt; "Qg3&lt;=0.142" -&gt; "Ql7&lt;=-0.125" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&gt;0.139" -&gt; "Ql2&gt;-0.142" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&lt;=0.139" -&gt; "Ql2&lt;=-0.187" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Qg1&gt;0.139" -&gt; "Ql2&gt;-0.218" -&gt; "Ql2&lt;=-0.142" -&gt; "Pg1&lt;=0.465" -&gt; </t>
+    <t xml:space="preserve">"Pl2&lt;=-0.253" -&gt; "Pmmc3&gt;-0.439" -&gt; "Qg2&lt;=0.066" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl5&lt;=-0.126" -&gt; "Qg3&lt;=0.142" -&gt; "Pl7&lt;=-0.166" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&gt;-0.262" -&gt; "Pg1&gt;0.155" -&gt; </t>
@@ -276,25 +279,22 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pg1&lt;=0.315" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.139" -&gt; "Ql2&gt;-0.218" -&gt; "Ql2&lt;=-0.142" -&gt; "Pg1&gt;0.465" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&gt;-0.262" -&gt; "Pg1&lt;=0.155" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Qg3&gt;0.245" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg1&gt;0.139" -&gt; "Ql2&lt;=-0.218" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; "Ql7&gt;-0.158" -&gt; </t>
+    <t xml:space="preserve">"Ql2&gt;-0.218" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&gt;0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; "Pl7&gt;-0.211" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.278" -&gt; "Pmmc3&lt;=0.63" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; "Ql7&lt;=-0.158" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&lt;=-0.262" -&gt; "Pl7&lt;=-0.211" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Pmmc3&lt;=0.305" -&gt; </t>
@@ -303,7 +303,10 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.041" -&gt; "Ql2&gt;-0.193" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.29" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&gt;0.17" -&gt; </t>
+    <t xml:space="preserve">"Ql2&gt;-0.134" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&lt;=0.17" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql2&gt;-0.218" -&gt; "Ql2&lt;=-0.134" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&lt;=0.17" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.419" -&gt; "Pmmc3&lt;=0.041" -&gt; "Ql2&lt;=-0.193" -&gt; </t>
@@ -315,13 +318,13 @@
     <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Ql2&gt;-0.172" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&gt;-0.099" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.29" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&gt;-0.359" -&gt; "Pmmc3&lt;=0.17" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&lt;=-0.099" -&gt; "Pg3&gt;0.08" -&gt; "Qg1&gt;0.246" -&gt; </t>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&gt;-0.132" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql2&gt;-0.218" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&gt;-0.25" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&lt;=-0.132" -&gt; "Qg3&gt;0.08" -&gt; "Qg1&gt;0.246" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pl2&gt;-0.157" -&gt; "Pg1&lt;=0.383" -&gt; </t>
@@ -330,22 +333,22 @@
     <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Ql2&lt;=-0.172" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.29" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&lt;=-0.359" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&lt;=-0.099" -&gt; "Pg3&gt;0.08" -&gt; "Qg1&lt;=0.246" -&gt; </t>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&lt;=-0.132" -&gt; "Qg3&gt;0.08" -&gt; "Qg1&lt;=0.246" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Qg3&lt;=0.245" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.29" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&gt;-0.25" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&lt;=-0.099" -&gt; "Pg3&lt;=0.08" -&gt; "Qg2&gt;0.046" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&lt;=-0.099" -&gt; "Pg3&lt;=0.08" -&gt; "Qg2&lt;=0.046" -&gt; </t>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&lt;=-0.132" -&gt; "Qg3&lt;=0.08" -&gt; "Qg2&gt;0.046" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql2&lt;=-0.218" -&gt; "Pl9&gt;-0.314" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql2&gt;-0.218" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&lt;=-0.25" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&lt;=-0.132" -&gt; "Qg3&lt;=0.08" -&gt; "Qg2&lt;=0.046" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.679" -&gt; </t>
@@ -354,40 +357,34 @@
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&lt;=0.02" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Ql2&lt;=-0.12" -&gt; "Pl7&lt;=-0.137" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.29" -&gt; "Pmmc3&gt;-0.23" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Ql2&lt;=-0.12" -&gt; "Pl7&gt;-0.137" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&gt;-0.29" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&lt;=-0.25" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Ql2&gt;-0.12" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.29" -&gt; "Pmmc3&lt;=-0.23" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Pl2&lt;=-0.16" -&gt; "Pl9&lt;=-0.237" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Pl2&lt;=-0.16" -&gt; "Pl9&gt;-0.237" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql2&lt;=-0.218" -&gt; "Pl9&lt;=-0.314" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Pl2&gt;-0.16" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&lt;=-0.129" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pg3&gt;0.13" -&gt; "Pl2&gt;-0.221" -&gt; "Qg2&gt;0.104" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pg3&gt;0.13" -&gt; "Pl2&gt;-0.221" -&gt; "Qg2&lt;=0.104" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pg3&gt;0.13" -&gt; "Pl2&lt;=-0.221" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Qg3&gt;0.13" -&gt; "Ql9&gt;-0.181" -&gt; "Pg1&gt;0.535" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Qg3&gt;0.13" -&gt; "Ql9&gt;-0.181" -&gt; "Pg1&lt;=0.535" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Qg3&gt;0.13" -&gt; "Ql9&lt;=-0.181" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.679" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pg3&lt;=0.13" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Qg3&lt;=0.13" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.886" -&gt; </t>
@@ -402,10 +399,10 @@
     <t xml:space="preserve">"Pmmc3&gt;0.417" -&gt; "Pmmc3&lt;=0.586" -&gt; "Ql7&lt;=-0.09" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.417" -&gt; "Pg1&gt;0.2" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.417" -&gt; "Pg1&lt;=0.2" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg3&gt;0.107" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg3&lt;=0.107" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pg3&gt;0.206" -&gt; </t>
@@ -423,16 +420,16 @@
     <t>ind value</t>
   </si>
   <si>
-    <t>[72, 32]</t>
+    <t>[32, 72]</t>
   </si>
   <si>
     <t>[6]</t>
   </si>
   <si>
-    <t>[12, 22]</t>
-  </si>
-  <si>
-    <t>[56, 41, 76]</t>
+    <t>[22, 12]</t>
+  </si>
+  <si>
+    <t>[56, 76, 41]</t>
   </si>
   <si>
     <t>Pmmc3&gt;0.866</t>
@@ -444,7 +441,7 @@
     <t>Pmmc3&gt;0.698 and Pmmc3&lt;=0.866</t>
   </si>
   <si>
-    <t>Pmmc3&gt;0.397 and Qg3&gt;0.191</t>
+    <t>Pmmc3&gt;0.397 and Pg3&gt;0.191</t>
   </si>
   <si>
     <t>Pmmc3&lt;=-0.754 and Ql9&lt;=-0.2</t>
@@ -456,13 +453,13 @@
     <t>Pmmc3&gt;-0.754 and Pmmc3&lt;=-0.391 and Pg1&gt;0.283</t>
   </si>
   <si>
-    <t>Pmmc3&gt;-0.754 and Pmmc3&lt;=-0.391 and Pg1&lt;=0.283 and Qg2&gt;0.058</t>
-  </si>
-  <si>
-    <t>Pmmc3&gt;0.397 and Qg3&lt;=0.191</t>
-  </si>
-  <si>
-    <t>Pmmc3&gt;-0.754 and Pmmc3&lt;=-0.391 and Pg1&lt;=0.283 and Qg2&lt;=0.058</t>
+    <t>Pmmc3&gt;-0.754 and Pmmc3&lt;=-0.391 and Pg1&lt;=0.283 and Ql7&lt;=-0.169</t>
+  </si>
+  <si>
+    <t>Pmmc3&gt;0.397 and Pg3&lt;=0.191</t>
+  </si>
+  <si>
+    <t>Pmmc3&gt;-0.754 and Pmmc3&lt;=-0.391 and Pg1&lt;=0.283 and Ql7&gt;-0.169</t>
   </si>
   <si>
     <t>Pmmc3&lt;=-0.601 and Pl9&gt;-0.208</t>
@@ -486,7 +483,7 @@
     <t>Pmmc3&gt;-0.601 and Pmmc3&lt;=-0.186 and Pg1&gt;0.236</t>
   </si>
   <si>
-    <t>Pmmc3&gt;-0.186 and Pl2&gt;-0.361</t>
+    <t>Pmmc3&gt;-0.186 and Ql2&gt;-0.271</t>
   </si>
   <si>
     <t>Pmmc3&gt;-0.103 and Pmmc3&lt;=0.19</t>
@@ -865,7 +862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -908,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -931,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -954,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -977,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1000,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1023,7 +1020,7 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1046,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1057,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>0.01699102289502898</v>
@@ -1069,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1092,7 +1089,7 @@
         <v>38</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1103,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0.01704633625638047</v>
@@ -1115,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1138,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1161,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1184,7 +1181,7 @@
         <v>24</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1207,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1230,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1253,7 +1250,7 @@
         <v>27</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1276,7 +1273,7 @@
         <v>26</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1299,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1322,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1345,7 +1342,7 @@
         <v>30</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1368,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1391,7 +1388,7 @@
         <v>24</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1414,7 +1411,7 @@
         <v>24</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1437,7 +1434,7 @@
         <v>32</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1460,7 +1457,7 @@
         <v>13</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1483,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1506,7 +1503,7 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1529,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1552,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1575,7 +1572,7 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1598,7 +1595,7 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1609,19 +1606,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>0.02280820483097433</v>
+        <v>0.02202363055082302</v>
       </c>
       <c r="D33">
-        <v>0.000698460512024295</v>
+        <v>0.0001168169372135299</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1632,22 +1629,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>0.0228719110679922</v>
+        <v>0.0222042489365981</v>
       </c>
       <c r="D34">
-        <v>0.0003379736830586507</v>
+        <v>8.635828182808253E-05</v>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1655,22 +1652,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>0.02313903838348561</v>
+        <v>0.02230722736871435</v>
       </c>
       <c r="D35">
-        <v>0.0004681066766120381</v>
+        <v>0.000112423886260727</v>
       </c>
       <c r="E35">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1678,22 +1675,22 @@
         <v>34</v>
       </c>
       <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>0.02244339801392984</v>
+      </c>
+      <c r="D36">
+        <v>4.168862690132115E-05</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
         <v>13</v>
       </c>
-      <c r="C36">
-        <v>0.02318149364593235</v>
-      </c>
-      <c r="D36">
-        <v>0.0006758100679868159</v>
-      </c>
-      <c r="E36">
-        <v>30</v>
-      </c>
-      <c r="F36">
-        <v>9</v>
-      </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1701,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>0.02329761609047391</v>
+        <v>0.0224446696239251</v>
       </c>
       <c r="D37">
-        <v>0.0008970736065153173</v>
+        <v>7.365874226311609E-05</v>
       </c>
       <c r="E37">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1724,22 +1721,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>0.02332265029989215</v>
+        <v>0.02256803523450975</v>
       </c>
       <c r="D38">
-        <v>0.000677170543929502</v>
+        <v>0.0001489018451184008</v>
       </c>
       <c r="E38">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1747,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>0.02333405138479829</v>
+        <v>0.02275012680889082</v>
       </c>
       <c r="D39">
-        <v>0.0004889725997271089</v>
+        <v>0.0001891393120417578</v>
       </c>
       <c r="E39">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1770,22 +1767,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>0.02339174426484444</v>
+        <v>0.02280820483097433</v>
       </c>
       <c r="D40">
-        <v>0.0006262333735319951</v>
+        <v>0.000698460512024295</v>
       </c>
       <c r="E40">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1793,22 +1790,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>0.02339210776354492</v>
+        <v>0.0228719110679922</v>
       </c>
       <c r="D41">
-        <v>0.0006911762378884055</v>
+        <v>0.0003379736830586507</v>
       </c>
       <c r="E41">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1816,19 +1813,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.02340767846124093</v>
+        <v>0.02313903838348561</v>
       </c>
       <c r="D42">
-        <v>0.0006739649505831632</v>
+        <v>0.0004681066766120381</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -1839,19 +1836,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.02341292458173021</v>
+        <v>0.02332265029989215</v>
       </c>
       <c r="D43">
-        <v>0.000684028620033037</v>
+        <v>0.000677170543929502</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -1862,19 +1859,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.0235040479031312</v>
+        <v>0.02333405138479829</v>
       </c>
       <c r="D44">
-        <v>0.0006220258182806493</v>
+        <v>0.0004889725997271089</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
         <v>47</v>
@@ -1885,16 +1882,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>0.02350451212189374</v>
+        <v>0.02339174426484444</v>
       </c>
       <c r="D45">
-        <v>0.00070585093493482</v>
+        <v>0.0006262333735319951</v>
       </c>
       <c r="E45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>9</v>
@@ -1908,19 +1905,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.02350778042998517</v>
+        <v>0.02341292458173021</v>
       </c>
       <c r="D46">
-        <v>0.0006840244687420526</v>
+        <v>0.000684028620033037</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" t="s">
         <v>49</v>
@@ -1931,19 +1928,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>0.02351422628717606</v>
+        <v>0.0235040479031312</v>
       </c>
       <c r="D47">
-        <v>0.0007000349081263364</v>
+        <v>0.0006220258182806493</v>
       </c>
       <c r="E47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -1957,16 +1954,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>0.02354570831761635</v>
+        <v>0.02350778042998517</v>
       </c>
       <c r="D48">
-        <v>0.0004714294806817443</v>
+        <v>0.0006840244687420526</v>
       </c>
       <c r="E48">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G48" t="s">
         <v>51</v>
@@ -1977,16 +1974,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>0.0235554749594893</v>
+        <v>0.02351422628717606</v>
       </c>
       <c r="D49">
-        <v>0.0007419349805868794</v>
+        <v>0.0007000349081263364</v>
       </c>
       <c r="E49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -2000,19 +1997,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>0.02360968802902703</v>
+        <v>0.02354570831761635</v>
       </c>
       <c r="D50">
-        <v>0.0006467584906884621</v>
+        <v>0.0004714294806817443</v>
       </c>
       <c r="E50">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G50" t="s">
         <v>53</v>
@@ -2023,19 +2020,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.02362624380925969</v>
+        <v>0.02360968802902703</v>
       </c>
       <c r="D51">
-        <v>0.0007121057156089382</v>
+        <v>0.0006467584906884621</v>
       </c>
       <c r="E51">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
         <v>54</v>
@@ -2046,16 +2043,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>0.02364211404101171</v>
+        <v>0.02362624380925969</v>
       </c>
       <c r="D52">
-        <v>0.000596789698875876</v>
+        <v>0.0007121057156089382</v>
       </c>
       <c r="E52">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -2069,19 +2066,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>0.02364648508296839</v>
+        <v>0.02362832553729526</v>
       </c>
       <c r="D53">
-        <v>0.0007803674653890387</v>
+        <v>0.0001732609125222461</v>
       </c>
       <c r="E53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
         <v>56</v>
@@ -2092,22 +2089,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>0.02366430725545415</v>
+        <v>0.02364211404101171</v>
       </c>
       <c r="D54">
-        <v>0.0002851840129046368</v>
+        <v>0.000596789698875876</v>
       </c>
       <c r="E54">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2115,22 +2112,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>0.02370584098092213</v>
+        <v>0.02364648508296839</v>
       </c>
       <c r="D55">
-        <v>0.0004582950301597482</v>
+        <v>0.0007803674653890387</v>
       </c>
       <c r="E55">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2138,22 +2135,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>0.02370642660410891</v>
+        <v>0.02366430725545415</v>
       </c>
       <c r="D56">
-        <v>0.0006727266893431141</v>
+        <v>0.0002851840129046368</v>
       </c>
       <c r="E56">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2161,19 +2158,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>0.02370882375457966</v>
+        <v>0.02370584098092213</v>
       </c>
       <c r="D57">
-        <v>0.0005569047217542072</v>
+        <v>0.0004582950301597482</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2184,19 +2181,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>0.02372736752789226</v>
+        <v>0.02370882375457966</v>
       </c>
       <c r="D58">
-        <v>0.0006738524409811209</v>
+        <v>0.0005569047217542072</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2207,19 +2204,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>0.02376128530211747</v>
+        <v>0.02372736752789226</v>
       </c>
       <c r="D59">
-        <v>0.0007451180295071907</v>
+        <v>0.0006738524409811209</v>
       </c>
       <c r="E59">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2230,19 +2227,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>0.0237635122411412</v>
+        <v>0.02376128530211747</v>
       </c>
       <c r="D60">
-        <v>0.0007673926578380515</v>
+        <v>0.0007451180295071907</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G60" t="s">
         <v>62</v>
@@ -2253,19 +2250,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C61">
-        <v>0.02381546597169192</v>
+        <v>0.0237635122411412</v>
       </c>
       <c r="D61">
-        <v>0.0007842130654429385</v>
+        <v>0.0007673926578380515</v>
       </c>
       <c r="E61">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
         <v>63</v>
@@ -2276,19 +2273,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>0.02382773888350727</v>
+        <v>0.02378946950880282</v>
       </c>
       <c r="D62">
-        <v>0.0001046470819243626</v>
+        <v>0.0002475292132403562</v>
       </c>
       <c r="E62">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
         <v>64</v>
@@ -2302,16 +2299,16 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>0.02383249466119674</v>
+        <v>0.02381619133550379</v>
       </c>
       <c r="D63">
-        <v>0.0008509509520691702</v>
+        <v>0.0001889385117178811</v>
       </c>
       <c r="E63">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
         <v>65</v>
@@ -2322,19 +2319,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>0.0238568139548938</v>
+        <v>0.02383249466119674</v>
       </c>
       <c r="D64">
-        <v>0.0006509395116425441</v>
+        <v>0.0008509509520691702</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
         <v>66</v>
@@ -2345,19 +2342,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>0.02386483658202525</v>
+        <v>0.0238568139548938</v>
       </c>
       <c r="D65">
-        <v>0.000692299637126214</v>
+        <v>0.0006509395116425441</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
         <v>67</v>
@@ -2368,19 +2365,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>0.02386803539424169</v>
+        <v>0.02386483658202525</v>
       </c>
       <c r="D66">
-        <v>0.0006548643510912061</v>
+        <v>0.000692299637126214</v>
       </c>
       <c r="E66">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G66" t="s">
         <v>68</v>
@@ -2391,19 +2388,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.02387802261745157</v>
+        <v>0.02386803539424169</v>
       </c>
       <c r="D67">
-        <v>0.0006058722241302532</v>
+        <v>0.0006548643510912061</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G67" t="s">
         <v>69</v>
@@ -2414,19 +2411,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>0.02390572179974669</v>
+        <v>0.02387584915202264</v>
       </c>
       <c r="D68">
-        <v>9.99200061041267E-05</v>
+        <v>0.0002260484739525922</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
         <v>70</v>
@@ -2437,16 +2434,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>0.02394984128545127</v>
+        <v>0.02387802261745157</v>
       </c>
       <c r="D69">
-        <v>0.0002473844702348405</v>
+        <v>0.0006058722241302532</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F69">
         <v>16</v>
@@ -2460,19 +2457,19 @@
         <v>68</v>
       </c>
       <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>0.02394984128545127</v>
+      </c>
+      <c r="D70">
+        <v>0.0002473844702348405</v>
+      </c>
+      <c r="E70">
         <v>10</v>
       </c>
-      <c r="C70">
-        <v>0.02396410649441137</v>
-      </c>
-      <c r="D70">
-        <v>0.0004283077315261753</v>
-      </c>
-      <c r="E70">
-        <v>44</v>
-      </c>
       <c r="F70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" t="s">
         <v>72</v>
@@ -2483,19 +2480,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>0.02396713884593495</v>
+        <v>0.02396410649441137</v>
       </c>
       <c r="D71">
-        <v>0.000622317492384749</v>
+        <v>0.0004283077315261753</v>
       </c>
       <c r="E71">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G71" t="s">
         <v>73</v>
@@ -2506,19 +2503,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>0.02399051687680802</v>
+        <v>0.02396713884593495</v>
       </c>
       <c r="D72">
-        <v>0.0006911023698615656</v>
+        <v>0.000622317492384749</v>
       </c>
       <c r="E72">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
         <v>74</v>
@@ -2529,19 +2526,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>0.02402804092400967</v>
+        <v>0.02399051687680802</v>
       </c>
       <c r="D73">
-        <v>0.000564033789332935</v>
+        <v>0.0006911023698615656</v>
       </c>
       <c r="E73">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G73" t="s">
         <v>75</v>
@@ -2552,19 +2549,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C74">
-        <v>0.02407612264172487</v>
+        <v>0.02399687452166484</v>
       </c>
       <c r="D74">
-        <v>8.624836147373132E-05</v>
+        <v>0.0002830703630378727</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
         <v>76</v>
@@ -2575,19 +2572,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>0.02412965619884322</v>
+        <v>0.02402804092400967</v>
       </c>
       <c r="D75">
-        <v>0.0007123900868360914</v>
+        <v>0.000564033789332935</v>
       </c>
       <c r="E75">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G75" t="s">
         <v>77</v>
@@ -2598,19 +2595,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C76">
-        <v>0.02413420084657794</v>
+        <v>0.02407007527624486</v>
       </c>
       <c r="D76">
-        <v>0.0007017141391119173</v>
+        <v>0.000242283854937743</v>
       </c>
       <c r="E76">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G76" t="s">
         <v>78</v>
@@ -2621,22 +2618,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>0.02416733016308729</v>
+        <v>0.02407188916204106</v>
       </c>
       <c r="D77">
-        <v>0.0004245968214308283</v>
+        <v>0.0001747033925943657</v>
       </c>
       <c r="E77">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2644,22 +2641,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>0.02417926046541868</v>
+        <v>0.02412965619884322</v>
       </c>
       <c r="D78">
-        <v>0.0005554579235550394</v>
+        <v>0.0007123900868360914</v>
       </c>
       <c r="E78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2667,22 +2664,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>0.02423387282806803</v>
+        <v>0.02413420084657794</v>
       </c>
       <c r="D79">
-        <v>0.0001551175098497806</v>
+        <v>0.0007017141391119173</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2690,22 +2687,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>0.02431958978266465</v>
+        <v>0.02415709983480455</v>
       </c>
       <c r="D80">
-        <v>0.0002561612926407003</v>
+        <v>0.0002690118043078101</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2713,22 +2710,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81">
-        <v>0.02436409828990935</v>
+        <v>0.02416733016308729</v>
       </c>
       <c r="D81">
-        <v>0.0001575701775886655</v>
+        <v>0.0004245968214308283</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2736,19 +2733,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>0.02442612440454588</v>
+        <v>0.02417926046541868</v>
       </c>
       <c r="D82">
-        <v>0.000117477269912707</v>
+        <v>0.0005554579235550394</v>
       </c>
       <c r="E82">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F82">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2759,19 +2756,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C83">
-        <v>0.02450876085126772</v>
+        <v>0.02442612440454588</v>
       </c>
       <c r="D83">
-        <v>0.0004122938866829239</v>
+        <v>0.000117477269912707</v>
       </c>
       <c r="E83">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2782,19 +2779,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C84">
-        <v>0.02454350689765477</v>
+        <v>0.02450876085126772</v>
       </c>
       <c r="D84">
-        <v>0.0002832675283441466</v>
+        <v>0.0004122938866829239</v>
       </c>
       <c r="E84">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F84">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
         <v>85</v>
@@ -2805,13 +2802,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>0.02457810559477856</v>
+        <v>0.02454350689765477</v>
       </c>
       <c r="D85">
-        <v>0.0001030657188890973</v>
+        <v>0.0002832675283441466</v>
       </c>
       <c r="E85">
         <v>12</v>
@@ -2840,7 +2837,7 @@
         <v>24</v>
       </c>
       <c r="F86">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
         <v>87</v>
@@ -2863,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
         <v>88</v>
@@ -2877,16 +2874,16 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>0.02479882402452158</v>
+        <v>0.02481604188298229</v>
       </c>
       <c r="D88">
-        <v>0.0002669022223473744</v>
+        <v>0.0006418437193789685</v>
       </c>
       <c r="E88">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
         <v>89</v>
@@ -2909,7 +2906,7 @@
         <v>24</v>
       </c>
       <c r="F89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
         <v>90</v>
@@ -2932,7 +2929,7 @@
         <v>39</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
         <v>91</v>
@@ -2955,7 +2952,7 @@
         <v>24</v>
       </c>
       <c r="F91">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
         <v>92</v>
@@ -2978,7 +2975,7 @@
         <v>13</v>
       </c>
       <c r="F92">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
         <v>93</v>
@@ -3001,7 +2998,7 @@
         <v>44</v>
       </c>
       <c r="F93">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
         <v>94</v>
@@ -3012,19 +3009,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.0251286346386654</v>
+        <v>0.02508866064546605</v>
       </c>
       <c r="D94">
-        <v>0.0003828184333816238</v>
+        <v>0.000775340455364279</v>
       </c>
       <c r="E94">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F94">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
         <v>95</v>
@@ -3035,19 +3032,19 @@
         <v>93</v>
       </c>
       <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>0.02524610283190244</v>
+      </c>
+      <c r="D95">
+        <v>0.0007698006593772632</v>
+      </c>
+      <c r="E95">
+        <v>36</v>
+      </c>
+      <c r="F95">
         <v>10</v>
-      </c>
-      <c r="C95">
-        <v>0.02525581309214651</v>
-      </c>
-      <c r="D95">
-        <v>9.424364373239498E-05</v>
-      </c>
-      <c r="E95">
-        <v>28</v>
-      </c>
-      <c r="F95">
-        <v>17</v>
       </c>
       <c r="G95" t="s">
         <v>96</v>
@@ -3058,16 +3055,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.02531412302085819</v>
+        <v>0.02525581309214651</v>
       </c>
       <c r="D96">
-        <v>0.0006699848145786545</v>
+        <v>9.424364373239498E-05</v>
       </c>
       <c r="E96">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F96">
         <v>15</v>
@@ -3084,16 +3081,16 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>0.02532367923251186</v>
+        <v>0.02531412302085819</v>
       </c>
       <c r="D97">
-        <v>0.0001437125872627471</v>
+        <v>0.0006699848145786545</v>
       </c>
       <c r="E97">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F97">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
         <v>98</v>
@@ -3104,16 +3101,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C98">
-        <v>0.02535350393767714</v>
+        <v>0.02532367923251186</v>
       </c>
       <c r="D98">
-        <v>0.0007384739508204859</v>
+        <v>0.0001437125872627471</v>
       </c>
       <c r="E98">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F98">
         <v>15</v>
@@ -3127,19 +3124,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.02546104190655363</v>
+        <v>0.02535350393767714</v>
       </c>
       <c r="D99">
-        <v>0.0004295192347449068</v>
+        <v>0.0007384739508204859</v>
       </c>
       <c r="E99">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F99">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G99" t="s">
         <v>100</v>
@@ -3150,19 +3147,19 @@
         <v>98</v>
       </c>
       <c r="B100">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>0.02537631172969217</v>
+      </c>
+      <c r="D100">
+        <v>0.0006808505822227854</v>
+      </c>
+      <c r="E100">
+        <v>69</v>
+      </c>
+      <c r="F100">
         <v>10</v>
-      </c>
-      <c r="C100">
-        <v>0.02548982895839702</v>
-      </c>
-      <c r="D100">
-        <v>0.0006439832231860885</v>
-      </c>
-      <c r="E100">
-        <v>20</v>
-      </c>
-      <c r="F100">
-        <v>15</v>
       </c>
       <c r="G100" t="s">
         <v>101</v>
@@ -3173,19 +3170,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>0.02549720267214351</v>
+        <v>0.02548982895839702</v>
       </c>
       <c r="D101">
-        <v>0.0006784998230710002</v>
+        <v>0.0006439832231860885</v>
       </c>
       <c r="E101">
         <v>20</v>
       </c>
       <c r="F101">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
         <v>102</v>
@@ -3199,16 +3196,16 @@
         <v>13</v>
       </c>
       <c r="C102">
-        <v>0.02561190012185111</v>
+        <v>0.02549720267214351</v>
       </c>
       <c r="D102">
-        <v>0.0001278945342374209</v>
+        <v>0.0006784998230710002</v>
       </c>
       <c r="E102">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F102">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
         <v>103</v>
@@ -3219,19 +3216,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C103">
-        <v>0.02563287906926217</v>
+        <v>0.02561190012185111</v>
       </c>
       <c r="D103">
-        <v>0.0004742571353167439</v>
+        <v>0.0001278945342374209</v>
       </c>
       <c r="E103">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F103">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G103" t="s">
         <v>104</v>
@@ -3254,7 +3251,7 @@
         <v>28</v>
       </c>
       <c r="F104">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G104" t="s">
         <v>105</v>
@@ -3277,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
         <v>106</v>
@@ -3288,19 +3285,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C106">
-        <v>0.02570000745845728</v>
+        <v>0.02571811168705428</v>
       </c>
       <c r="D106">
-        <v>0.0004203384609339478</v>
+        <v>0.0007120488157456301</v>
       </c>
       <c r="E106">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F106">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G106" t="s">
         <v>107</v>
@@ -3311,19 +3308,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.02571811168705428</v>
+        <v>0.02576947673315445</v>
       </c>
       <c r="D107">
-        <v>0.0007120488157456301</v>
+        <v>0.0008269096479415886</v>
       </c>
       <c r="E107">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F107">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" t="s">
         <v>108</v>
@@ -3334,19 +3331,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C108">
-        <v>0.02581240199788425</v>
+        <v>0.02578171401993194</v>
       </c>
       <c r="D108">
-        <v>0.0007510891958787748</v>
+        <v>0.0008219486604248395</v>
       </c>
       <c r="E108">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F108">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
         <v>109</v>
@@ -3357,19 +3354,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>0.0258514641879674</v>
+        <v>0.02581240199788425</v>
       </c>
       <c r="D109">
-        <v>0.0005237252487653696</v>
+        <v>0.0007510891958787748</v>
       </c>
       <c r="E109">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F109">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
         <v>110</v>
@@ -3380,19 +3377,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C110">
-        <v>0.02594574882284743</v>
+        <v>0.0258514641879674</v>
       </c>
       <c r="D110">
-        <v>0.001100273424216343</v>
+        <v>0.0005237252487653696</v>
       </c>
       <c r="E110">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F110">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G110" t="s">
         <v>111</v>
@@ -3403,19 +3400,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>0.02597125672901772</v>
+        <v>0.02594574882284743</v>
       </c>
       <c r="D111">
-        <v>0.0008081719444918874</v>
+        <v>0.001100273424216343</v>
       </c>
       <c r="E111">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F111">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G111" t="s">
         <v>112</v>
@@ -3426,19 +3423,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C112">
-        <v>0.02603973227182875</v>
+        <v>0.02597125672901772</v>
       </c>
       <c r="D112">
-        <v>0.0004246201969878227</v>
+        <v>0.0008081719444918874</v>
       </c>
       <c r="E112">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F112">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>113</v>
@@ -3461,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="F113">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G113" t="s">
         <v>114</v>
@@ -3472,19 +3469,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.0261847628841854</v>
+        <v>0.02620822503330692</v>
       </c>
       <c r="D114">
-        <v>0.0004787339222495649</v>
+        <v>0.0006584275129977875</v>
       </c>
       <c r="E114">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F114">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
         <v>115</v>
@@ -3507,7 +3504,7 @@
         <v>33</v>
       </c>
       <c r="F115">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G115" t="s">
         <v>35</v>
@@ -3530,7 +3527,7 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>116</v>
@@ -3541,19 +3538,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>0.02645539939239334</v>
+        <v>0.02662188123766716</v>
       </c>
       <c r="D117">
-        <v>0.0005152586642456176</v>
+        <v>0.001559735229781535</v>
       </c>
       <c r="E117">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F117">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>117</v>
@@ -3564,19 +3561,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>0.02662188123766716</v>
+        <v>0.02664138026452307</v>
       </c>
       <c r="D118">
-        <v>0.001559735229781535</v>
+        <v>0.001764219977537804</v>
       </c>
       <c r="E118">
         <v>16</v>
       </c>
       <c r="F118">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
         <v>118</v>
@@ -3587,19 +3584,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.02664138026452307</v>
+        <v>0.02679321280453888</v>
       </c>
       <c r="D119">
-        <v>0.001764219977537804</v>
+        <v>0.001718264653614995</v>
       </c>
       <c r="E119">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F119">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>119</v>
@@ -3610,19 +3607,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>0.02679321280453888</v>
+        <v>0.02691038525265101</v>
       </c>
       <c r="D120">
-        <v>0.001718264653614995</v>
+        <v>0.001813896888490849</v>
       </c>
       <c r="E120">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F120">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>120</v>
@@ -3633,19 +3630,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C121">
-        <v>0.02691038525265101</v>
+        <v>0.02707442132202601</v>
       </c>
       <c r="D121">
-        <v>0.001813896888490849</v>
+        <v>0.0003527305012340884</v>
       </c>
       <c r="E121">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F121">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G121" t="s">
         <v>121</v>
@@ -3656,19 +3653,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>0.02707442132202601</v>
+        <v>0.02711904610565475</v>
       </c>
       <c r="D122">
-        <v>0.0003527305012340884</v>
+        <v>0.001923037659670183</v>
       </c>
       <c r="E122">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F122">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>122</v>
@@ -3679,19 +3676,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C123">
-        <v>0.02711904610565475</v>
+        <v>0.02735230437608003</v>
       </c>
       <c r="D123">
-        <v>0.001923037659670183</v>
+        <v>0.0008172774619066171</v>
       </c>
       <c r="E123">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F123">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G123" t="s">
         <v>123</v>
@@ -3702,19 +3699,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>0.02735230437608003</v>
+        <v>0.02785100282013659</v>
       </c>
       <c r="D124">
-        <v>0.0008172774619066171</v>
+        <v>0.0008151163964746765</v>
       </c>
       <c r="E124">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G124" t="s">
         <v>124</v>
@@ -3725,19 +3722,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.02785100282013659</v>
+        <v>0.0280098622460855</v>
       </c>
       <c r="D125">
-        <v>0.0008151163964746765</v>
+        <v>0.000810987769155881</v>
       </c>
       <c r="E125">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G125" t="s">
         <v>125</v>
@@ -3748,19 +3745,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>0.0280098622460855</v>
+        <v>0.02819092479532535</v>
       </c>
       <c r="D126">
-        <v>0.000810987769155881</v>
+        <v>0.0008323034144071699</v>
       </c>
       <c r="E126">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G126" t="s">
         <v>126</v>
@@ -3771,19 +3768,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>0.02819092479532535</v>
+        <v>0.02829906989611</v>
       </c>
       <c r="D127">
-        <v>0.0008323034144071699</v>
+        <v>0.000863786218887432</v>
       </c>
       <c r="E127">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G127" t="s">
         <v>127</v>
@@ -3794,19 +3791,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>0.02829906989611</v>
+        <v>0.0286893561719293</v>
       </c>
       <c r="D128">
-        <v>0.000863786218887432</v>
+        <v>0.0008787065347286926</v>
       </c>
       <c r="E128">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G128" t="s">
         <v>128</v>
@@ -3817,19 +3814,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>0.0286893561719293</v>
+        <v>0.02878759988230973</v>
       </c>
       <c r="D129">
-        <v>0.0008787065347286926</v>
+        <v>0.0009795661399329804</v>
       </c>
       <c r="E129">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G129" t="s">
         <v>129</v>
@@ -3840,45 +3837,22 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130">
-        <v>0.02878759988230973</v>
+        <v>0.02904375882490808</v>
       </c>
       <c r="D130">
-        <v>0.0009795661399329804</v>
+        <v>0.001008916182999735</v>
       </c>
       <c r="E130">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G130" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>3</v>
-      </c>
-      <c r="C131">
-        <v>0.02904375882490808</v>
-      </c>
-      <c r="D131">
-        <v>0.001008916182999735</v>
-      </c>
-      <c r="E131">
-        <v>72</v>
-      </c>
-      <c r="F131">
-        <v>2</v>
-      </c>
-      <c r="G131" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3899,13 +3873,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3913,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>0.01626152627656083</v>
@@ -3930,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>0.01634171221013232</v>
@@ -3947,13 +3921,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>0.01655352372230934</v>
@@ -3964,13 +3938,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <v>0.01663639594496794</v>
@@ -3981,13 +3955,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>0.01666698791929148</v>
@@ -3998,13 +3972,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>0.0168636128529146</v>
@@ -4015,13 +3989,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8">
         <v>0.01694369063930563</v>
@@ -4032,13 +4006,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>0.01699102289502898</v>
@@ -4049,13 +4023,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>0.01703763187847031</v>
@@ -4066,13 +4040,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>0.01704633625638047</v>
@@ -4083,13 +4057,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12">
         <v>0.01708351382833518</v>
@@ -4100,13 +4074,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13">
         <v>0.01727252860160905</v>
@@ -4117,13 +4091,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14">
         <v>0.01736223655316849</v>
@@ -4134,13 +4108,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>0.01740714108290719</v>
@@ -4151,13 +4125,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16">
         <v>0.01743038957968556</v>
@@ -4168,13 +4142,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17">
         <v>0.01756421652727464</v>
@@ -4185,13 +4159,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18">
         <v>0.01760551873718006</v>
@@ -4202,13 +4176,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19">
         <v>0.01776294900900462</v>
@@ -4219,13 +4193,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20">
         <v>0.01778515428139292</v>
@@ -4236,13 +4210,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21">
         <v>0.01793650782849964</v>
@@ -4253,13 +4227,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22">
         <v>0.0187189184962917</v>
@@ -4270,13 +4244,13 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23">
         <v>0.01949326967763328</v>
@@ -4287,13 +4261,13 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24">
         <v>0.01982329304985215</v>
@@ -4314,505 +4288,505 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4820,7 +4794,7 @@
         <v>14</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>22</v>
@@ -4828,376 +4802,376 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
       <c r="C52">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>9</v>
       </c>
       <c r="C53">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B54">
         <v>9</v>
       </c>
       <c r="C54">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>10</v>
       </c>
       <c r="C56">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
       <c r="C57">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>11</v>
       </c>
       <c r="C60">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>11</v>
       </c>
       <c r="C61">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B62">
         <v>11</v>
       </c>
       <c r="C62">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B63">
         <v>11</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>11</v>
       </c>
       <c r="C64">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>11</v>
       </c>
       <c r="C65">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B67">
         <v>12</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B68">
         <v>12</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B71">
         <v>14</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <v>15</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B75">
         <v>15</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B77">
         <v>16</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B80">
         <v>17</v>
       </c>
       <c r="C80">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B81">
         <v>17</v>
       </c>
       <c r="C81">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CCRCs_Clustering/Results/Clustering_results_DCgain_freq.xlsx
+++ b/CCRCs_Clustering/Results/Clustering_results_DCgain_freq.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
   <si>
     <t>leaf</t>
   </si>
@@ -129,33 +129,18 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.656" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Ql5&gt;-0.091" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.103" -&gt; "Ql5&lt;=-0.091" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Ql2&gt;-0.262" -&gt; "Ql5&gt;-0.128" -&gt; "Pg3&gt;0.176" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;-0.537" -&gt; "Pmmc3&lt;=-0.103" -&gt; "Ql2&gt;-0.262" -&gt; "Ql5&lt;=-0.128" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Ql2&gt;-0.262" -&gt; "Ql5&gt;-0.128" -&gt; "Pg3&lt;=0.176" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.537" -&gt; "Ql2&gt;-0.262" -&gt; "Ql5&lt;=-0.128" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=-0.103" -&gt; "Ql2&lt;=-0.262" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=-0.398" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.656" -&gt; "Ql2&gt;-0.171" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Ql2&gt;-0.193" -&gt; "Pg1&gt;0.201" -&gt; "Pmmc3&lt;=-0.068" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql2&gt;-0.193" -&gt; "Pg1&gt;0.201" -&gt; "Pmmc3&gt;-0.068" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.398" -&gt; "Pmmc3&lt;=0.041" -&gt; "Pg1&gt;0.268" -&gt; </t>
   </si>
   <si>
@@ -165,12 +150,21 @@
     <t xml:space="preserve">"Pl2&gt;-0.157" -&gt; "Pl9&gt;-0.16" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Ql2&gt;-0.284" -&gt; "Ql2&lt;=-0.193" -&gt; "Pmmc3&lt;=-0.137" -&gt; "Pg1&gt;0.385" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ql2&gt;-0.193" -&gt; "Pg1&lt;=0.201" -&gt; "Qg1&lt;=0.035" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.857" -&gt; "Pl9&gt;-0.273" -&gt; "Pg1&gt;0.259" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&gt;-0.109" -&gt; "Pg2&gt;0.112" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Ql2&gt;-0.284" -&gt; "Ql2&lt;=-0.193" -&gt; "Pmmc3&lt;=-0.137" -&gt; "Pg1&lt;=0.385" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.857" -&gt; "Pmmc3&lt;=-0.649" -&gt; "Pl9&gt;-0.273" -&gt; "Pg1&gt;0.259" -&gt; </t>
   </si>
   <si>
@@ -180,15 +174,15 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=-0.22" -&gt; "Ql5&gt;-0.103" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Ql2&gt;-0.193" -&gt; "Pg1&lt;=0.201" -&gt; "Qg1&gt;0.035" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&gt;-0.109" -&gt; "Pg2&lt;=0.112" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl9&gt;-0.273" -&gt; "Pg1&lt;=0.259" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.253" -&gt; "Pmmc3&lt;=-0.649" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Ql7&lt;=-0.109" -&gt; "Pg2&lt;=0.115" -&gt; </t>
   </si>
   <si>
@@ -198,6 +192,9 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.656" -&gt; "Pmmc3&lt;=-0.22" -&gt; "Ql5&lt;=-0.103" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Ql2&lt;=-0.284" -&gt; "Pmmc3&lt;=-0.137" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pl5&gt;-0.126" -&gt; "Pg1&gt;0.271" -&gt; "Ql7&gt;-0.085" -&gt; </t>
   </si>
   <si>
@@ -210,10 +207,7 @@
     <t xml:space="preserve">"Pl5&gt;-0.126" -&gt; "Pg1&gt;0.271" -&gt; "Ql7&lt;=-0.085" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.253" -&gt; "Pmmc3&gt;-0.649" -&gt; "Qg2&gt;0.075" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.253" -&gt; "Pmmc3&lt;=-0.439" -&gt; "Pg1&gt;0.281" -&gt; </t>
+    <t xml:space="preserve">"Ql2&lt;=-0.193" -&gt; "Pmmc3&gt;-0.137" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&lt;=0.02" -&gt; "Pl7&gt;-0.176" -&gt; </t>
@@ -228,9 +222,6 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.649" -&gt; "Pl9&lt;=-0.273" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.253" -&gt; "Pmmc3&gt;-0.649" -&gt; "Qg2&lt;=0.075" -&gt; "Pg2&lt;=0.077" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pl5&gt;-0.126" -&gt; "Pg1&lt;=0.271" -&gt; </t>
   </si>
   <si>
@@ -246,27 +237,15 @@
     <t xml:space="preserve">"Pmmc3&gt;-0.649" -&gt; "Pmmc3&lt;=-0.41" -&gt; "Pg3&gt;0.103" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&gt;-0.253" -&gt; "Pmmc3&gt;-0.649" -&gt; "Qg2&lt;=0.075" -&gt; "Pg2&gt;0.077" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pl5&lt;=-0.126" -&gt; "Qg3&lt;=0.142" -&gt; "Pl7&gt;-0.166" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.253" -&gt; "Pmmc3&gt;-0.439" -&gt; "Qg2&gt;0.066" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.253" -&gt; "Pmmc3&lt;=-0.439" -&gt; "Pg1&lt;=0.281" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.041" -&gt; "Pmmc3&lt;=0.278" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;-0.41" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pl2&lt;=-0.253" -&gt; "Pmmc3&gt;-0.439" -&gt; "Qg2&lt;=0.066" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pl5&lt;=-0.126" -&gt; "Qg3&lt;=0.142" -&gt; "Pl7&lt;=-0.166" -&gt; </t>
   </si>
   <si>
@@ -282,9 +261,6 @@
     <t xml:space="preserve">"Pmmc3&lt;=-0.419" -&gt; "Pl9&gt;-0.262" -&gt; "Pg1&lt;=0.155" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg3&gt;0.245" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Ql2&gt;-0.218" -&gt; "Pg1&lt;=0.3" -&gt; "Pmmc3&gt;0.17" -&gt; </t>
   </si>
   <si>
@@ -336,7 +312,7 @@
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&lt;=-0.132" -&gt; "Qg3&gt;0.08" -&gt; "Qg1&lt;=0.246" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Qg3&lt;=0.245" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Ql7&gt;-0.097" -&gt; "Pg3&gt;0.217" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&lt;=-0.132" -&gt; "Qg3&lt;=0.08" -&gt; "Qg2&gt;0.046" -&gt; </t>
@@ -348,45 +324,48 @@
     <t xml:space="preserve">"Ql2&gt;-0.218" -&gt; "Pg1&gt;0.3" -&gt; "Pmmc3&lt;=-0.25" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Ql7&gt;-0.097" -&gt; "Pg3&lt;=0.217" -&gt; "Pl9&gt;-0.179" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&gt;0.02" -&gt; "Pl7&lt;=-0.132" -&gt; "Qg3&lt;=0.08" -&gt; "Qg2&lt;=0.046" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.305" -&gt; "Pmmc3&lt;=0.679" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Ql7&gt;-0.097" -&gt; "Pg3&lt;=0.217" -&gt; "Pl9&lt;=-0.179" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Ql7&lt;=-0.097" -&gt; "Pg3&gt;0.2" -&gt; "Pg1&gt;0.521" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.083" -&gt; "Qg1&gt;0.078" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pl2&lt;=-0.157" -&gt; "Pmmc3&lt;=0.02" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Pl2&lt;=-0.16" -&gt; "Pl9&lt;=-0.237" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Pl2&lt;=-0.16" -&gt; "Pl9&gt;-0.237" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Ql7&lt;=-0.097" -&gt; "Pg3&gt;0.2" -&gt; "Pg1&lt;=0.521" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Ql7&lt;=-0.097" -&gt; "Pg3&lt;=0.2" -&gt; "Qg2&lt;=0.069" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Ql7&lt;=-0.097" -&gt; "Pg3&lt;=0.2" -&gt; "Qg2&gt;0.069" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Ql2&lt;=-0.218" -&gt; "Pl9&lt;=-0.314" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.129" -&gt; "Pl2&gt;-0.16" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&lt;=-0.129" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Qg3&gt;0.13" -&gt; "Ql9&gt;-0.181" -&gt; "Pg1&gt;0.535" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Qg3&gt;0.13" -&gt; "Ql9&gt;-0.181" -&gt; "Pg1&lt;=0.535" -&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Qg3&gt;0.13" -&gt; "Ql9&lt;=-0.181" -&gt; </t>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.083" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&lt;=-0.083" -&gt; "Qg1&lt;=0.078" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&gt;0.679" -&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Qg3&lt;=0.13" -&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.886" -&gt; </t>
   </si>
   <si>
@@ -402,15 +381,27 @@
     <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg3&gt;0.107" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&gt;-0.089" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Pmmc3&lt;=0.417" -&gt; "Qg3&lt;=0.107" -&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pg3&gt;0.206" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;0.123" -&gt; "Ql7&lt;=-0.089" -&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">"Pmmc3&lt;=0.123" -&gt; "Pg3&lt;=0.206" -&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.123" -&gt; "Pl9&gt;-0.232" -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pmmc3&gt;-0.083" -&gt; "Pmmc3&lt;=0.123" -&gt; "Pl9&lt;=-0.232" -&gt; </t>
+  </si>
+  <si>
     <t>Combinations</t>
   </si>
   <si>
@@ -420,7 +411,7 @@
     <t>ind value</t>
   </si>
   <si>
-    <t>[32, 72]</t>
+    <t>[72, 32]</t>
   </si>
   <si>
     <t>[6]</t>
@@ -862,7 +853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -905,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -928,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -951,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -974,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -997,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1020,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1043,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1066,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1089,7 +1080,7 @@
         <v>38</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1112,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1135,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1158,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1181,7 +1172,7 @@
         <v>24</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1204,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1227,7 +1218,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1250,7 +1241,7 @@
         <v>27</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1273,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1296,7 +1287,7 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1319,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1342,7 +1333,7 @@
         <v>30</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1365,7 +1356,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1388,7 +1379,7 @@
         <v>24</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1411,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1434,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1457,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1480,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1503,7 +1494,7 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1526,7 +1517,7 @@
         <v>21</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1549,7 +1540,7 @@
         <v>25</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1572,7 +1563,7 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1595,7 +1586,7 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1606,19 +1597,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>0.02202363055082302</v>
+        <v>0.02280820483097433</v>
       </c>
       <c r="D33">
-        <v>0.0001168169372135299</v>
+        <v>0.000698460512024295</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1629,22 +1620,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>0.0222042489365981</v>
+        <v>0.0228719110679922</v>
       </c>
       <c r="D34">
-        <v>8.635828182808253E-05</v>
+        <v>0.0003379736830586507</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1652,22 +1643,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>0.02230722736871435</v>
+        <v>0.02313903838348561</v>
       </c>
       <c r="D35">
-        <v>0.000112423886260727</v>
+        <v>0.0004681066766120381</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1675,22 +1666,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>0.02244339801392984</v>
+        <v>0.02318149364593235</v>
       </c>
       <c r="D36">
-        <v>4.168862690132115E-05</v>
+        <v>0.0006758100679868159</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1698,22 +1689,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>0.0224446696239251</v>
+        <v>0.02329761609047391</v>
       </c>
       <c r="D37">
-        <v>7.365874226311609E-05</v>
+        <v>0.0008970736065153173</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1721,22 +1712,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>0.02256803523450975</v>
+        <v>0.02332265029989215</v>
       </c>
       <c r="D38">
-        <v>0.0001489018451184008</v>
+        <v>0.000677170543929502</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1744,22 +1735,22 @@
         <v>37</v>
       </c>
       <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0.02333405138479829</v>
+      </c>
+      <c r="D39">
+        <v>0.0004889725997271089</v>
+      </c>
+      <c r="E39">
+        <v>24</v>
+      </c>
+      <c r="F39">
         <v>2</v>
       </c>
-      <c r="C39">
-        <v>0.02275012680889082</v>
-      </c>
-      <c r="D39">
-        <v>0.0001891393120417578</v>
-      </c>
-      <c r="E39">
-        <v>9</v>
-      </c>
-      <c r="F39">
-        <v>13</v>
-      </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1767,22 +1758,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>0.02280820483097433</v>
+        <v>0.02339174426484444</v>
       </c>
       <c r="D40">
-        <v>0.000698460512024295</v>
+        <v>0.0006262333735319951</v>
       </c>
       <c r="E40">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1790,22 +1781,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.0228719110679922</v>
+        <v>0.02339210776354492</v>
       </c>
       <c r="D41">
-        <v>0.0003379736830586507</v>
+        <v>0.0006911762378884055</v>
       </c>
       <c r="E41">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1813,19 +1804,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>0.02313903838348561</v>
+        <v>0.02340767846124093</v>
       </c>
       <c r="D42">
-        <v>0.0004681066766120381</v>
+        <v>0.0006739649505831632</v>
       </c>
       <c r="E42">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -1836,19 +1827,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>0.02332265029989215</v>
+        <v>0.02341292458173021</v>
       </c>
       <c r="D43">
-        <v>0.000677170543929502</v>
+        <v>0.000684028620033037</v>
       </c>
       <c r="E43">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -1859,19 +1850,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>0.02333405138479829</v>
+        <v>0.0235040479031312</v>
       </c>
       <c r="D44">
-        <v>0.0004889725997271089</v>
+        <v>0.0006220258182806493</v>
       </c>
       <c r="E44">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
         <v>47</v>
@@ -1882,19 +1873,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.02339174426484444</v>
+        <v>0.02350451212189374</v>
       </c>
       <c r="D45">
-        <v>0.0006262333735319951</v>
+        <v>0.00070585093493482</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
         <v>48</v>
@@ -1905,19 +1896,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>0.02341292458173021</v>
+        <v>0.02350778042998517</v>
       </c>
       <c r="D46">
-        <v>0.000684028620033037</v>
+        <v>0.0006840244687420526</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
         <v>49</v>
@@ -1928,19 +1919,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>0.0235040479031312</v>
+        <v>0.02351422628717606</v>
       </c>
       <c r="D47">
-        <v>0.0006220258182806493</v>
+        <v>0.0007000349081263364</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -1954,16 +1945,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>0.02350778042998517</v>
+        <v>0.02354570831761635</v>
       </c>
       <c r="D48">
-        <v>0.0006840244687420526</v>
+        <v>0.0004714294806817443</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
         <v>51</v>
@@ -1974,19 +1965,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.02351422628717606</v>
+        <v>0.0235554749594893</v>
       </c>
       <c r="D49">
-        <v>0.0007000349081263364</v>
+        <v>0.0007419349805868794</v>
       </c>
       <c r="E49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
         <v>52</v>
@@ -1997,19 +1988,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.02354570831761635</v>
+        <v>0.02360968802902703</v>
       </c>
       <c r="D50">
-        <v>0.0004714294806817443</v>
+        <v>0.0006467584906884621</v>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
         <v>53</v>
@@ -2020,19 +2011,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>0.02360968802902703</v>
+        <v>0.02362624380925969</v>
       </c>
       <c r="D51">
-        <v>0.0006467584906884621</v>
+        <v>0.0007121057156089382</v>
       </c>
       <c r="E51">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
         <v>54</v>
@@ -2043,16 +2034,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>0.02362624380925969</v>
+        <v>0.02364211404101171</v>
       </c>
       <c r="D52">
-        <v>0.0007121057156089382</v>
+        <v>0.000596789698875876</v>
       </c>
       <c r="E52">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -2066,19 +2057,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>0.02362832553729526</v>
+        <v>0.02364648508296839</v>
       </c>
       <c r="D53">
-        <v>0.0001732609125222461</v>
+        <v>0.0007803674653890387</v>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G53" t="s">
         <v>56</v>
@@ -2089,22 +2080,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>0.02364211404101171</v>
+        <v>0.02366430725545415</v>
       </c>
       <c r="D54">
-        <v>0.000596789698875876</v>
+        <v>0.0002851840129046368</v>
       </c>
       <c r="E54">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2112,22 +2103,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>0.02364648508296839</v>
+        <v>0.02370584098092213</v>
       </c>
       <c r="D55">
-        <v>0.0007803674653890387</v>
+        <v>0.0004582950301597482</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2135,22 +2126,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>0.02366430725545415</v>
+        <v>0.02370642660410891</v>
       </c>
       <c r="D56">
-        <v>0.0002851840129046368</v>
+        <v>0.0006727266893431141</v>
       </c>
       <c r="E56">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2158,19 +2149,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>0.02370584098092213</v>
+        <v>0.02370882375457966</v>
       </c>
       <c r="D57">
-        <v>0.0004582950301597482</v>
+        <v>0.0005569047217542072</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2181,19 +2172,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>0.02370882375457966</v>
+        <v>0.02372736752789226</v>
       </c>
       <c r="D58">
-        <v>0.0005569047217542072</v>
+        <v>0.0006738524409811209</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2204,19 +2195,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>0.02372736752789226</v>
+        <v>0.02376128530211747</v>
       </c>
       <c r="D59">
-        <v>0.0006738524409811209</v>
+        <v>0.0007451180295071907</v>
       </c>
       <c r="E59">
+        <v>27</v>
+      </c>
+      <c r="F59">
         <v>14</v>
-      </c>
-      <c r="F59">
-        <v>9</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2227,16 +2218,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>0.02376128530211747</v>
+        <v>0.0237635122411412</v>
       </c>
       <c r="D60">
-        <v>0.0007451180295071907</v>
+        <v>0.0007673926578380515</v>
       </c>
       <c r="E60">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -2250,19 +2241,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>0.0237635122411412</v>
+        <v>0.02381546597169192</v>
       </c>
       <c r="D61">
-        <v>0.0007673926578380515</v>
+        <v>0.0007842130654429385</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
         <v>63</v>
@@ -2273,19 +2264,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>0.02378946950880282</v>
+        <v>0.02383249466119674</v>
       </c>
       <c r="D62">
-        <v>0.0002475292132403562</v>
+        <v>0.0008509509520691702</v>
       </c>
       <c r="E62">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F62">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G62" t="s">
         <v>64</v>
@@ -2296,19 +2287,19 @@
         <v>61</v>
       </c>
       <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>0.0238568139548938</v>
+      </c>
+      <c r="D63">
+        <v>0.0006509395116425441</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+      <c r="F63">
         <v>4</v>
-      </c>
-      <c r="C63">
-        <v>0.02381619133550379</v>
-      </c>
-      <c r="D63">
-        <v>0.0001889385117178811</v>
-      </c>
-      <c r="E63">
-        <v>14</v>
-      </c>
-      <c r="F63">
-        <v>17</v>
       </c>
       <c r="G63" t="s">
         <v>65</v>
@@ -2319,19 +2310,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>0.02383249466119674</v>
+        <v>0.02386483658202525</v>
       </c>
       <c r="D64">
-        <v>0.0008509509520691702</v>
+        <v>0.000692299637126214</v>
       </c>
       <c r="E64">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
         <v>66</v>
@@ -2342,19 +2333,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>0.0238568139548938</v>
+        <v>0.02386803539424169</v>
       </c>
       <c r="D65">
-        <v>0.0006509395116425441</v>
+        <v>0.0006548643510912061</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F65">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
         <v>67</v>
@@ -2365,19 +2356,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>0.02386483658202525</v>
+        <v>0.02387802261745157</v>
       </c>
       <c r="D66">
-        <v>0.000692299637126214</v>
+        <v>0.0006058722241302532</v>
       </c>
       <c r="E66">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
         <v>68</v>
@@ -2388,19 +2379,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0.02386803539424169</v>
+        <v>0.02394984128545127</v>
       </c>
       <c r="D67">
-        <v>0.0006548643510912061</v>
+        <v>0.0002473844702348405</v>
       </c>
       <c r="E67">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
         <v>69</v>
@@ -2411,19 +2402,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>0.02387584915202264</v>
+        <v>0.02396410649441137</v>
       </c>
       <c r="D68">
-        <v>0.0002260484739525922</v>
+        <v>0.0004283077315261753</v>
       </c>
       <c r="E68">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F68">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
         <v>70</v>
@@ -2434,19 +2425,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>0.02387802261745157</v>
+        <v>0.02396713884593495</v>
       </c>
       <c r="D69">
-        <v>0.0006058722241302532</v>
+        <v>0.000622317492384749</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G69" t="s">
         <v>71</v>
@@ -2457,19 +2448,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0.02394984128545127</v>
+        <v>0.02399051687680802</v>
       </c>
       <c r="D70">
-        <v>0.0002473844702348405</v>
+        <v>0.0006911023698615656</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" t="s">
         <v>72</v>
@@ -2480,19 +2471,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0.02396410649441137</v>
+        <v>0.02402804092400967</v>
       </c>
       <c r="D71">
-        <v>0.0004283077315261753</v>
+        <v>0.000564033789332935</v>
       </c>
       <c r="E71">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G71" t="s">
         <v>73</v>
@@ -2503,19 +2494,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>0.02396713884593495</v>
+        <v>0.02412965619884322</v>
       </c>
       <c r="D72">
-        <v>0.000622317492384749</v>
+        <v>0.0007123900868360914</v>
       </c>
       <c r="E72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
         <v>74</v>
@@ -2526,19 +2517,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>0.02399051687680802</v>
+        <v>0.02413420084657794</v>
       </c>
       <c r="D73">
-        <v>0.0006911023698615656</v>
+        <v>0.0007017141391119173</v>
       </c>
       <c r="E73">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
         <v>75</v>
@@ -2549,22 +2540,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>0.02399687452166484</v>
+        <v>0.02416733016308729</v>
       </c>
       <c r="D74">
-        <v>0.0002830703630378727</v>
+        <v>0.0004245968214308283</v>
       </c>
       <c r="E74">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2572,22 +2563,22 @@
         <v>73</v>
       </c>
       <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0.02417926046541868</v>
+      </c>
+      <c r="D75">
+        <v>0.0005554579235550394</v>
+      </c>
+      <c r="E75">
+        <v>28</v>
+      </c>
+      <c r="F75">
         <v>4</v>
       </c>
-      <c r="C75">
-        <v>0.02402804092400967</v>
-      </c>
-      <c r="D75">
-        <v>0.000564033789332935</v>
-      </c>
-      <c r="E75">
-        <v>20</v>
-      </c>
-      <c r="F75">
-        <v>16</v>
-      </c>
       <c r="G75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2598,19 +2589,19 @@
         <v>7</v>
       </c>
       <c r="C76">
-        <v>0.02407007527624486</v>
+        <v>0.02442612440454588</v>
       </c>
       <c r="D76">
-        <v>0.000242283854937743</v>
+        <v>0.000117477269912707</v>
       </c>
       <c r="E76">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2618,22 +2609,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.02407188916204106</v>
+        <v>0.02450876085126772</v>
       </c>
       <c r="D77">
-        <v>0.0001747033925943657</v>
+        <v>0.0004122938866829239</v>
       </c>
       <c r="E77">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2641,22 +2632,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>0.02412965619884322</v>
+        <v>0.02454350689765477</v>
       </c>
       <c r="D78">
-        <v>0.0007123900868360914</v>
+        <v>0.0002832675283441466</v>
       </c>
       <c r="E78">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2664,22 +2655,22 @@
         <v>77</v>
       </c>
       <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0.02472086331481084</v>
+      </c>
+      <c r="D79">
+        <v>0.0001174866743348865</v>
+      </c>
+      <c r="E79">
+        <v>24</v>
+      </c>
+      <c r="F79">
         <v>12</v>
       </c>
-      <c r="C79">
-        <v>0.02413420084657794</v>
-      </c>
-      <c r="D79">
-        <v>0.0007017141391119173</v>
-      </c>
-      <c r="E79">
-        <v>27</v>
-      </c>
-      <c r="F79">
-        <v>6</v>
-      </c>
       <c r="G79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2687,22 +2678,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>0.02415709983480455</v>
+        <v>0.02481604188298229</v>
       </c>
       <c r="D80">
-        <v>0.0002690118043078101</v>
+        <v>0.0006418437193789685</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F80">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2710,22 +2701,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>0.02416733016308729</v>
+        <v>0.02483439584401565</v>
       </c>
       <c r="D81">
-        <v>0.0004245968214308283</v>
+        <v>0.00014546333379011</v>
       </c>
       <c r="E81">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2733,19 +2724,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C82">
-        <v>0.02417926046541868</v>
+        <v>0.02493160950678349</v>
       </c>
       <c r="D82">
-        <v>0.0005554579235550394</v>
+        <v>0.0007744328737463692</v>
       </c>
       <c r="E82">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F82">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2756,19 +2747,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0.02442612440454588</v>
+        <v>0.02494202935406097</v>
       </c>
       <c r="D83">
-        <v>0.000117477269912707</v>
+        <v>0.0001744428155327838</v>
       </c>
       <c r="E83">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F83">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2779,19 +2770,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>0.02450876085126772</v>
+        <v>0.02495009116811242</v>
       </c>
       <c r="D84">
-        <v>0.0004122938866829239</v>
+        <v>0.0003463045378648876</v>
       </c>
       <c r="E84">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
         <v>85</v>
@@ -2802,19 +2793,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>0.02454350689765477</v>
+        <v>0.02506942574600392</v>
       </c>
       <c r="D85">
-        <v>0.0002832675283441466</v>
+        <v>0.0001084490421745463</v>
       </c>
       <c r="E85">
+        <v>44</v>
+      </c>
+      <c r="F85">
         <v>12</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
       </c>
       <c r="G85" t="s">
         <v>86</v>
@@ -2825,19 +2816,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>0.02472086331481084</v>
+        <v>0.02508866064546605</v>
       </c>
       <c r="D86">
-        <v>0.0001174866743348865</v>
+        <v>0.000775340455364279</v>
       </c>
       <c r="E86">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
         <v>87</v>
@@ -2848,19 +2839,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>0.02473322719377157</v>
+        <v>0.02524610283190244</v>
       </c>
       <c r="D87">
-        <v>0.001732929904731379</v>
+        <v>0.0007698006593772632</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F87">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
         <v>88</v>
@@ -2871,19 +2862,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>0.02481604188298229</v>
+        <v>0.02525581309214651</v>
       </c>
       <c r="D88">
-        <v>0.0006418437193789685</v>
+        <v>9.424364373239498E-05</v>
       </c>
       <c r="E88">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
         <v>89</v>
@@ -2894,19 +2885,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C89">
-        <v>0.02483439584401565</v>
+        <v>0.02531412302085819</v>
       </c>
       <c r="D89">
-        <v>0.00014546333379011</v>
+        <v>0.0006699848145786545</v>
       </c>
       <c r="E89">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
         <v>90</v>
@@ -2917,19 +2908,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>0.02493160950678349</v>
+        <v>0.02532367923251186</v>
       </c>
       <c r="D90">
-        <v>0.0007744328737463692</v>
+        <v>0.0001437125872627471</v>
       </c>
       <c r="E90">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
         <v>91</v>
@@ -2940,19 +2931,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>0.02494202935406097</v>
+        <v>0.02535350393767714</v>
       </c>
       <c r="D91">
-        <v>0.0001744428155327838</v>
+        <v>0.0007384739508204859</v>
       </c>
       <c r="E91">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F91">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
         <v>92</v>
@@ -2963,19 +2954,19 @@
         <v>90</v>
       </c>
       <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>0.02537631172969217</v>
+      </c>
+      <c r="D92">
+        <v>0.0006808505822227854</v>
+      </c>
+      <c r="E92">
+        <v>69</v>
+      </c>
+      <c r="F92">
         <v>9</v>
-      </c>
-      <c r="C92">
-        <v>0.02495009116811242</v>
-      </c>
-      <c r="D92">
-        <v>0.0003463045378648876</v>
-      </c>
-      <c r="E92">
-        <v>13</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
       </c>
       <c r="G92" t="s">
         <v>93</v>
@@ -2986,19 +2977,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0.02506942574600392</v>
+        <v>0.02548982895839702</v>
       </c>
       <c r="D93">
-        <v>0.0001084490421745463</v>
+        <v>0.0006439832231860885</v>
       </c>
       <c r="E93">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
         <v>94</v>
@@ -3009,19 +3000,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>0.02508866064546605</v>
+        <v>0.02549720267214351</v>
       </c>
       <c r="D94">
-        <v>0.000775340455364279</v>
+        <v>0.0006784998230710002</v>
       </c>
       <c r="E94">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
         <v>95</v>
@@ -3032,19 +3023,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C95">
-        <v>0.02524610283190244</v>
+        <v>0.02561190012185111</v>
       </c>
       <c r="D95">
-        <v>0.0007698006593772632</v>
+        <v>0.0001278945342374209</v>
       </c>
       <c r="E95">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
         <v>96</v>
@@ -3055,19 +3046,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96">
-        <v>0.02525581309214651</v>
+        <v>0.02563335503338226</v>
       </c>
       <c r="D96">
-        <v>9.424364373239498E-05</v>
+        <v>0.0004834763515067875</v>
       </c>
       <c r="E96">
         <v>28</v>
       </c>
       <c r="F96">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
         <v>97</v>
@@ -3081,16 +3072,16 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>0.02531412302085819</v>
+        <v>0.02563512098906606</v>
       </c>
       <c r="D97">
-        <v>0.0006699848145786545</v>
+        <v>0.0007724213784333092</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s">
         <v>98</v>
@@ -3101,19 +3092,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>0.02532367923251186</v>
+        <v>0.02571811168705428</v>
       </c>
       <c r="D98">
-        <v>0.0001437125872627471</v>
+        <v>0.0007120488157456301</v>
       </c>
       <c r="E98">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F98">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
         <v>99</v>
@@ -3124,19 +3115,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>0.02535350393767714</v>
+        <v>0.02576947673315445</v>
       </c>
       <c r="D99">
-        <v>0.0007384739508204859</v>
+        <v>0.0008269096479415886</v>
       </c>
       <c r="E99">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G99" t="s">
         <v>100</v>
@@ -3147,19 +3138,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.02537631172969217</v>
+        <v>0.02578171401993194</v>
       </c>
       <c r="D100">
-        <v>0.0006808505822227854</v>
+        <v>0.0008219486604248395</v>
       </c>
       <c r="E100">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
         <v>101</v>
@@ -3170,19 +3161,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.02548982895839702</v>
+        <v>0.02579222551359305</v>
       </c>
       <c r="D101">
-        <v>0.0006439832231860885</v>
+        <v>0.0008813295196538454</v>
       </c>
       <c r="E101">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G101" t="s">
         <v>102</v>
@@ -3193,19 +3184,19 @@
         <v>100</v>
       </c>
       <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>0.02581240199788425</v>
+      </c>
+      <c r="D102">
+        <v>0.0007510891958787748</v>
+      </c>
+      <c r="E102">
+        <v>16</v>
+      </c>
+      <c r="F102">
         <v>13</v>
-      </c>
-      <c r="C102">
-        <v>0.02549720267214351</v>
-      </c>
-      <c r="D102">
-        <v>0.0006784998230710002</v>
-      </c>
-      <c r="E102">
-        <v>20</v>
-      </c>
-      <c r="F102">
-        <v>7</v>
       </c>
       <c r="G102" t="s">
         <v>103</v>
@@ -3216,16 +3207,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C103">
-        <v>0.02561190012185111</v>
+        <v>0.0258514641879674</v>
       </c>
       <c r="D103">
-        <v>0.0001278945342374209</v>
+        <v>0.0005237252487653696</v>
       </c>
       <c r="E103">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F103">
         <v>15</v>
@@ -3239,19 +3230,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>0.02563335503338226</v>
+        <v>0.02586171430068848</v>
       </c>
       <c r="D104">
-        <v>0.0004834763515067875</v>
+        <v>0.0009609185277144712</v>
       </c>
       <c r="E104">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G104" t="s">
         <v>105</v>
@@ -3262,19 +3253,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C105">
-        <v>0.02565121762448606</v>
+        <v>0.02587121515523033</v>
       </c>
       <c r="D105">
-        <v>0.002290916932481646</v>
+        <v>0.0008195460757826698</v>
       </c>
       <c r="E105">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F105">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G105" t="s">
         <v>106</v>
@@ -3285,19 +3276,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>0.02571811168705428</v>
+        <v>0.02587796999823182</v>
       </c>
       <c r="D106">
-        <v>0.0007120488157456301</v>
+        <v>0.002643485363719039</v>
       </c>
       <c r="E106">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
         <v>107</v>
@@ -3308,19 +3299,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>0.02576947673315445</v>
+        <v>0.02594574882284743</v>
       </c>
       <c r="D107">
-        <v>0.0008269096479415886</v>
+        <v>0.001100273424216343</v>
       </c>
       <c r="E107">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
         <v>108</v>
@@ -3331,19 +3322,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>0.02578171401993194</v>
+        <v>0.02598654028234072</v>
       </c>
       <c r="D108">
-        <v>0.0008219486604248395</v>
+        <v>0.0008787199095718984</v>
       </c>
       <c r="E108">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108" t="s">
         <v>109</v>
@@ -3354,19 +3345,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>0.02581240199788425</v>
+        <v>0.02601396422463952</v>
       </c>
       <c r="D109">
-        <v>0.0007510891958787748</v>
+        <v>0.0009046069824618585</v>
       </c>
       <c r="E109">
+        <v>13</v>
+      </c>
+      <c r="F109">
         <v>16</v>
-      </c>
-      <c r="F109">
-        <v>7</v>
       </c>
       <c r="G109" t="s">
         <v>110</v>
@@ -3377,19 +3368,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.0258514641879674</v>
+        <v>0.02609284358978871</v>
       </c>
       <c r="D110">
-        <v>0.0005237252487653696</v>
+        <v>0.0009640089800358984</v>
       </c>
       <c r="E110">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G110" t="s">
         <v>111</v>
@@ -3403,16 +3394,16 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>0.02594574882284743</v>
+        <v>0.02620822503330692</v>
       </c>
       <c r="D111">
-        <v>0.001100273424216343</v>
+        <v>0.0006584275129977875</v>
       </c>
       <c r="E111">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G111" t="s">
         <v>112</v>
@@ -3423,19 +3414,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>0.02597125672901772</v>
+        <v>0.02630164592570337</v>
       </c>
       <c r="D112">
-        <v>0.0008081719444918874</v>
+        <v>0.001189260526311842</v>
       </c>
       <c r="E112">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G112" t="s">
         <v>113</v>
@@ -3446,22 +3437,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>0.02613337389007604</v>
+        <v>0.02632565154056158</v>
       </c>
       <c r="D113">
-        <v>0.001245816006537819</v>
+        <v>0.0007122648752245558</v>
       </c>
       <c r="E113">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3472,19 +3463,19 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>0.02620822503330692</v>
+        <v>0.02634861461378618</v>
       </c>
       <c r="D114">
-        <v>0.0006584275129977875</v>
+        <v>0.002902948971344858</v>
       </c>
       <c r="E114">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3495,19 +3486,19 @@
         <v>12</v>
       </c>
       <c r="C115">
-        <v>0.02632565154056158</v>
+        <v>0.02707442132202601</v>
       </c>
       <c r="D115">
-        <v>0.0007122648752245558</v>
+        <v>0.0003527305012340884</v>
       </c>
       <c r="E115">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3518,13 +3509,13 @@
         <v>14</v>
       </c>
       <c r="C116">
-        <v>0.02633200070898864</v>
+        <v>0.02735230437608003</v>
       </c>
       <c r="D116">
-        <v>0.001521852766215989</v>
+        <v>0.0008172774619066171</v>
       </c>
       <c r="E116">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3538,16 +3529,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>0.02662188123766716</v>
+        <v>0.02785100282013659</v>
       </c>
       <c r="D117">
-        <v>0.001559735229781535</v>
+        <v>0.0008151163964746765</v>
       </c>
       <c r="E117">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3561,16 +3552,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C118">
-        <v>0.02664138026452307</v>
+        <v>0.0280098622460855</v>
       </c>
       <c r="D118">
-        <v>0.001764219977537804</v>
+        <v>0.000810987769155881</v>
       </c>
       <c r="E118">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3584,16 +3575,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C119">
-        <v>0.02679321280453888</v>
+        <v>0.02819092479532535</v>
       </c>
       <c r="D119">
-        <v>0.001718264653614995</v>
+        <v>0.0008323034144071699</v>
       </c>
       <c r="E119">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3607,16 +3598,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>0.02691038525265101</v>
+        <v>0.02829906989611</v>
       </c>
       <c r="D120">
-        <v>0.001813896888490849</v>
+        <v>0.000863786218887432</v>
       </c>
       <c r="E120">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3630,19 +3621,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C121">
-        <v>0.02707442132202601</v>
+        <v>0.02841859880732533</v>
       </c>
       <c r="D121">
-        <v>0.0003527305012340884</v>
+        <v>0.001173195768063385</v>
       </c>
       <c r="E121">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
         <v>121</v>
@@ -3653,16 +3644,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C122">
-        <v>0.02711904610565475</v>
+        <v>0.0286893561719293</v>
       </c>
       <c r="D122">
-        <v>0.001923037659670183</v>
+        <v>0.0008787065347286926</v>
       </c>
       <c r="E122">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3676,19 +3667,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>0.02735230437608003</v>
+        <v>0.02878759988230973</v>
       </c>
       <c r="D123">
-        <v>0.0008172774619066171</v>
+        <v>0.0009795661399329804</v>
       </c>
       <c r="E123">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F123">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G123" t="s">
         <v>123</v>
@@ -3699,19 +3690,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>0.02785100282013659</v>
+        <v>0.02880724428100475</v>
       </c>
       <c r="D124">
-        <v>0.0008151163964746765</v>
+        <v>0.001089186201137996</v>
       </c>
       <c r="E124">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F124">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
         <v>124</v>
@@ -3722,19 +3713,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>0.0280098622460855</v>
+        <v>0.02904375882490808</v>
       </c>
       <c r="D125">
-        <v>0.000810987769155881</v>
+        <v>0.001008916182999735</v>
       </c>
       <c r="E125">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
         <v>125</v>
@@ -3745,19 +3736,19 @@
         <v>124</v>
       </c>
       <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>0.02910753698760534</v>
+      </c>
+      <c r="D126">
+        <v>0.001181250629974517</v>
+      </c>
+      <c r="E126">
+        <v>8</v>
+      </c>
+      <c r="F126">
         <v>11</v>
-      </c>
-      <c r="C126">
-        <v>0.02819092479532535</v>
-      </c>
-      <c r="D126">
-        <v>0.0008323034144071699</v>
-      </c>
-      <c r="E126">
-        <v>72</v>
-      </c>
-      <c r="F126">
-        <v>5</v>
       </c>
       <c r="G126" t="s">
         <v>126</v>
@@ -3768,91 +3759,22 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>0.02829906989611</v>
+        <v>0.029385396065906</v>
       </c>
       <c r="D127">
-        <v>0.000863786218887432</v>
+        <v>0.001238717595429597</v>
       </c>
       <c r="E127">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G127" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>6</v>
-      </c>
-      <c r="C128">
-        <v>0.0286893561719293</v>
-      </c>
-      <c r="D128">
-        <v>0.0008787065347286926</v>
-      </c>
-      <c r="E128">
-        <v>72</v>
-      </c>
-      <c r="F128">
-        <v>5</v>
-      </c>
-      <c r="G128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129">
-        <v>0.02878759988230973</v>
-      </c>
-      <c r="D129">
-        <v>0.0009795661399329804</v>
-      </c>
-      <c r="E129">
-        <v>92</v>
-      </c>
-      <c r="F129">
-        <v>5</v>
-      </c>
-      <c r="G129" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>3</v>
-      </c>
-      <c r="C130">
-        <v>0.02904375882490808</v>
-      </c>
-      <c r="D130">
-        <v>0.001008916182999735</v>
-      </c>
-      <c r="E130">
-        <v>72</v>
-      </c>
-      <c r="F130">
-        <v>5</v>
-      </c>
-      <c r="G130" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3873,13 +3795,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3887,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E2">
         <v>0.01626152627656083</v>
@@ -3904,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3">
         <v>0.01634171221013232</v>
@@ -3921,13 +3843,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>0.01655352372230934</v>
@@ -3938,13 +3860,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>0.01663639594496794</v>
@@ -3955,13 +3877,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6">
         <v>0.01666698791929148</v>
@@ -3972,13 +3894,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E7">
         <v>0.0168636128529146</v>
@@ -3989,13 +3911,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>0.01694369063930563</v>
@@ -4006,13 +3928,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>0.01699102289502898</v>
@@ -4023,13 +3945,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>0.01703763187847031</v>
@@ -4040,13 +3962,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>0.01704633625638047</v>
@@ -4057,13 +3979,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E12">
         <v>0.01708351382833518</v>
@@ -4074,13 +3996,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E13">
         <v>0.01727252860160905</v>
@@ -4091,13 +4013,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E14">
         <v>0.01736223655316849</v>
@@ -4108,13 +4030,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E15">
         <v>0.01740714108290719</v>
@@ -4125,13 +4047,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E16">
         <v>0.01743038957968556</v>
@@ -4142,13 +4064,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>0.01756421652727464</v>
@@ -4159,13 +4081,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>0.01760551873718006</v>
@@ -4176,13 +4098,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E19">
         <v>0.01776294900900462</v>
@@ -4193,13 +4115,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E20">
         <v>0.01778515428139292</v>
@@ -4210,13 +4132,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E21">
         <v>0.01793650782849964</v>
@@ -4227,13 +4149,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>0.0187189184962917</v>
@@ -4244,13 +4166,13 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E23">
         <v>0.01949326967763328</v>
@@ -4261,13 +4183,13 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E24">
         <v>0.01982329304985215</v>
@@ -4288,890 +4210,890 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>9</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>9</v>
       </c>
       <c r="C51">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B53">
         <v>9</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>11</v>
       </c>
       <c r="C60">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>11</v>
       </c>
       <c r="C61">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B62">
         <v>11</v>
       </c>
       <c r="C62">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>11</v>
       </c>
       <c r="C63">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <v>12</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B70">
         <v>13</v>
       </c>
       <c r="C70">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <v>15</v>
       </c>
       <c r="C75">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B76">
         <v>16</v>
       </c>
       <c r="C76">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>16</v>
       </c>
       <c r="C77">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B78">
         <v>16</v>
       </c>
       <c r="C78">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B79">
         <v>16</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
